--- a/分析樓板明細表.xlsx
+++ b/分析樓板明細表.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Cywt-90\檔案庫\人員資料備存\偉豪\2024土水比賽\家瑋\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Cywt-90\檔案庫\人員資料備存\芠昕\BIM競賽\檔案交付\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5784"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="分析樓板明細表" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>分析樓板明細表</t>
   </si>
@@ -70,6 +70,15 @@
   </si>
   <si>
     <t>樓板 : B1F車道</t>
+  </si>
+  <si>
+    <t>樓板 : 車道梁 br1</t>
+  </si>
+  <si>
+    <t>樓板 : PC</t>
+  </si>
+  <si>
+    <t>樓板 : 雨遮</t>
   </si>
   <si>
     <t>欄1</t>
@@ -734,8 +743,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A4:C51" totalsRowShown="0">
-  <autoFilter ref="A4:C51"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表格1" displayName="表格1" ref="A4:C61" totalsRowShown="0">
+  <autoFilter ref="A4:C61"/>
   <tableColumns count="3">
     <tableColumn id="1" name="欄1"/>
     <tableColumn id="2" name="欄2"/>
@@ -1008,15 +1017,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" customWidth="1"/>
   </cols>
@@ -1039,13 +1048,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1075,7 +1084,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1086,7 +1095,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1097,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1130,7 +1139,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1141,7 +1150,7 @@
         <v>10</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -1152,7 +1161,7 @@
         <v>10</v>
       </c>
       <c r="B14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -1306,7 +1315,7 @@
         <v>7</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1317,7 +1326,7 @@
         <v>8</v>
       </c>
       <c r="B29">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -1339,7 +1348,7 @@
         <v>6</v>
       </c>
       <c r="B31">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1350,7 +1359,7 @@
         <v>6</v>
       </c>
       <c r="B32">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1361,7 +1370,7 @@
         <v>6</v>
       </c>
       <c r="B33">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -1416,7 +1425,7 @@
         <v>6</v>
       </c>
       <c r="B38">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1504,7 +1513,7 @@
         <v>15</v>
       </c>
       <c r="B46">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -1515,7 +1524,7 @@
         <v>7</v>
       </c>
       <c r="B47">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -1526,7 +1535,7 @@
         <v>6</v>
       </c>
       <c r="B48">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -1548,7 +1557,7 @@
         <v>8</v>
       </c>
       <c r="B50">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -1562,6 +1571,116 @@
         <v>10</v>
       </c>
       <c r="C51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58">
+        <v>78</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61">
         <v>1</v>
       </c>
     </row>
